--- a/run/output/iecodebook/auto_label_missing.xlsx
+++ b/run/output/iecodebook/auto_label_missing.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wb501238\Documents\GitHub\iefieldkit\run\output\iecodebook\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luizaandrade\Documents\GitHub\iefieldkit\run\output\iecodebook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A506314-D8BB-40C0-9012-07EEF1847BF5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85BDBC3F-CB59-4FB7-8585-2EC04ABB56D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="27645" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="137">
   <si>
     <t>list_name</t>
   </si>
@@ -789,8 +789,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1155,6 +1155,9 @@
       </c>
       <c r="D13" t="s">
         <v>60</v>
+      </c>
+      <c r="E13" t="s">
+        <v>73</v>
       </c>
       <c r="H13" t="s">
         <v>108</v>
@@ -1201,8 +1204,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
